--- a/Jogos_do_Dia/2023-10-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.43</v>
@@ -857,10 +857,10 @@
         <v>3.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.54</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.03</v>
+        <v>2.04</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3.61</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -996,10 +996,10 @@
         <v>2.75</v>
       </c>
       <c r="S4" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1108,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.62</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>1.99</v>
       </c>
       <c r="M6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.33</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Z6" t="n">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AA6" t="n">
         <v>0.67</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP6" t="n">
         <v>3.1</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AQ6" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.83</v>
       </c>
       <c r="L7" t="n">
-        <v>1.95</v>
+        <v>4.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="R7" t="n">
-        <v>5.17</v>
+        <v>4.22</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="T7" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="X7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA7" t="n">
         <v>0.67</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM7" t="n">
         <v>1.8</v>
       </c>
-      <c r="AH7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AN7" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.53</v>
@@ -1552,10 +1552,10 @@
         <v>2.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,35 +1642,35 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Skövde AIK</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.15</v>
       </c>
       <c r="M9" t="n">
         <v>1.3</v>
@@ -1682,94 +1682,94 @@
         <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R9" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>1.22</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.33</v>
+        <v>1.62</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.4</v>
+        <v>0.31</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1785,130 +1785,130 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Värnamo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skövde AIK</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>2.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Värnamo</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AP11" t="n">
         <v>3.25</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2108,10 +2108,10 @@
         <v>4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
@@ -2283,13 +2283,13 @@
         <v>3.51</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>2.83</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -2555,49 +2555,49 @@
         <v>1.72</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.94</v>
+        <v>2.91</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="16">
@@ -2700,13 +2700,13 @@
         <v>2.79</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>1.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AC17" t="n">
         <v>1.46</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AE17" t="n">
         <v>2.27</v>
@@ -2915,13 +2915,13 @@
         <v>6.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="K18" t="n">
         <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.43</v>
@@ -2942,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>2.35</v>
@@ -3159,7 +3159,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3171,41 +3171,41 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>1.66</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>1.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.07</v>
@@ -3214,91 +3214,91 @@
         <v>8.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R20" t="n">
         <v>3.3</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="X20" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>1.51</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.38</v>
+        <v>2.84</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.44</v>
+        <v>2.67</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,41 +3310,41 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.07</v>
@@ -3353,91 +3353,91 @@
         <v>8.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
         <v>3.3</v>
       </c>
       <c r="S21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
         <v>2</v>
       </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
         <v>1.91</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AC21" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.84</v>
+        <v>3.38</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AF21" t="n">
         <v>8</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.67</v>
+        <v>2.44</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>1.37</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>2.75</v>
+        <v>6.4</v>
       </c>
       <c r="M22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
         <v>1.44</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AC22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1.45</v>
       </c>
-      <c r="AD22" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AP22" t="n">
-        <v>4.1</v>
+        <v>3.48</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,134 +3588,134 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>2.33</v>
       </c>
       <c r="K23" t="n">
-        <v>4.75</v>
+        <v>3.18</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>2.62</v>
       </c>
       <c r="M23" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="O23" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="P23" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="R23" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="S23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.62</v>
       </c>
-      <c r="T23" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>1.1</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.83</v>
+        <v>2.98</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.35</v>
+        <v>2.4</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AN23" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AP23" t="n">
-        <v>3.48</v>
+        <v>4.1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,35 +3727,35 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Valencia CF</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.77</v>
+        <v>2.01</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="L24" t="n">
-        <v>4.75</v>
+        <v>3.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.5</v>
@@ -3764,97 +3764,97 @@
         <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>1.4</v>
       </c>
       <c r="R24" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
         <v>1.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,134 +3866,134 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Valencia CF</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="I25" t="n">
         <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>3.47</v>
       </c>
       <c r="L25" t="n">
-        <v>5.75</v>
+        <v>4.3</v>
       </c>
       <c r="M25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.25</v>
       </c>
-      <c r="N25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="Y25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z25" t="n">
         <v>1.5</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>3</v>
-      </c>
       <c r="AA25" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.35</v>
+        <v>1.32</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.41</v>
+        <v>2.23</v>
       </c>
       <c r="AE25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO25" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1.79</v>
-      </c>
       <c r="AP25" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="K26" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z26" t="n">
         <v>3</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="AA26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB26" t="n">
         <v>2.35</v>
       </c>
-      <c r="T26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AC26" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.49</v>
+        <v>3.41</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.76</v>
+        <v>4.25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.04</v>
+        <v>2.95</v>
       </c>
       <c r="AL26" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.93</v>
+        <v>1.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP26" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="27">
@@ -4166,13 +4166,13 @@
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -4308,10 +4308,10 @@
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.62</v>
@@ -4604,10 +4604,10 @@
         <v>6.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
         <v>2.8</v>
@@ -4655,10 +4655,10 @@
         <v>2.1</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ30" t="n">
         <v>1.26</v>
@@ -4722,13 +4722,13 @@
         <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,7 +4749,7 @@
         <v>3.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
         <v>1.83</v>
@@ -4861,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-10-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -739,10 +739,10 @@
         <v>7.1</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AB2" t="n">
         <v>1.69</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.94</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.43</v>
@@ -857,10 +857,10 @@
         <v>3.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -878,10 +878,10 @@
         <v>2.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AB3" t="n">
         <v>1.45</v>
@@ -969,13 +969,13 @@
         <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>2.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.61</v>
+        <v>2.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.44</v>
@@ -996,10 +996,10 @@
         <v>2.75</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1017,10 +1017,10 @@
         <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1.44</v>
@@ -1108,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1156,10 +1156,10 @@
         <v>1.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AB5" t="n">
         <v>1.51</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Värnamo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.99</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>5.17</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.65</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5</v>
+        <v>1.36</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.62</v>
+        <v>2.51</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1.8</v>
       </c>
-      <c r="AH6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AO6" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Skövde AIK</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
         <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.83</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
         <v>15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R7" t="n">
-        <v>4.22</v>
+        <v>4.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="T7" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
         <v>1.22</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="AB7" t="n">
         <v>1.39</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AE7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1507,130 +1507,130 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Warta Poznań</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.4</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="O8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1.09</v>
       </c>
-      <c r="P8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AD8" t="n">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skövde AIK</t>
+          <t>Warta Poznań</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
         <v>3.6</v>
       </c>
       <c r="J9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI9" t="n">
         <v>3.4</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>1.53</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AK9" t="n">
-        <v>3.35</v>
+        <v>2.33</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Värnamo</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P10" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.33</v>
       </c>
-      <c r="R10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM10" t="n">
         <v>1.93</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2.55</v>
-      </c>
       <c r="AN10" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,128 +1920,128 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>1.63</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="R11" t="n">
-        <v>4.3</v>
+        <v>4.22</v>
       </c>
       <c r="S11" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="T11" t="n">
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="X11" t="n">
         <v>1.22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.35</v>
+        <v>2.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.33</v>
+        <v>2.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AL11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM11" t="n">
         <v>1.8</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1.92</v>
-      </c>
       <c r="AN11" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -2084,10 +2084,10 @@
         <v>1.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>3.88</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2129,10 +2129,10 @@
         <v>2.15</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB12" t="n">
         <v>1.91</v>
@@ -2202,130 +2202,130 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.65</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="W13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA13" t="n">
         <v>2.14</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AB13" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.51</v>
+        <v>2.91</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.49</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,128 +2337,128 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Oţelul Galaţi</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.91</v>
+        <v>6.5</v>
       </c>
       <c r="J14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI14" t="n">
         <v>2.8</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="AJ14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO14" t="n">
         <v>1.33</v>
       </c>
-      <c r="N14" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="O15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.3</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="W15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.25</v>
       </c>
-      <c r="N15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="Y15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA15" t="n">
         <v>1.5</v>
       </c>
-      <c r="T15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AB15" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.11</v>
+        <v>1.89</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.71</v>
+        <v>3.2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16">
@@ -2619,124 +2619,124 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.94</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>3.32</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="L16" t="n">
-        <v>3.3</v>
+        <v>2.73</v>
       </c>
       <c r="M16" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z16" t="n">
         <v>1.2</v>
       </c>
-      <c r="R16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2</v>
-      </c>
       <c r="AA16" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="17">
@@ -2758,130 +2758,130 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="J17" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.33</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.16</v>
       </c>
       <c r="O17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="n">
         <v>1.25</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T17" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="V17" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH17" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AI17" t="n">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,128 +2893,128 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oţelul Galaţi</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="H18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I18" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R18" t="n">
         <v>4.2</v>
       </c>
-      <c r="L18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="V18" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.95</v>
+        <v>3.51</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="AF18" t="n">
         <v>8.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>3.59</v>
+        <v>2.49</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.58</v>
+        <v>2.65</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.15</v>
+        <v>1.79</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.33</v>
+        <v>2.01</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.5</v>
+        <v>2.24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="19">
@@ -3036,124 +3036,124 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.94</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="P19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R19" t="n">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AE19" t="n">
         <v>1.55</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.8</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.34</v>
+        <v>4.1</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.41</v>
+        <v>2.85</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.39</v>
+        <v>2.06</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="20">
@@ -3241,10 +3241,10 @@
         <v>2.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AB20" t="n">
         <v>1.51</v>
@@ -3332,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.4</v>
@@ -3359,10 +3359,10 @@
         <v>3.3</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
         <v>1.75</v>
@@ -3380,7 +3380,7 @@
         <v>1.66</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AA21" t="n">
         <v>1</v>
@@ -3437,7 +3437,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z22" t="n">
         <v>2.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="AA22" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH22" t="n">
         <v>1.37</v>
       </c>
-      <c r="K22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AI22" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AN22" t="n">
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.48</v>
+        <v>4.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,134 +3588,134 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="K23" t="n">
-        <v>3.18</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>2.62</v>
+        <v>6.75</v>
       </c>
       <c r="M23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB23" t="n">
         <v>1.44</v>
       </c>
-      <c r="N23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P23" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AC23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1.45</v>
       </c>
-      <c r="AD23" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AP23" t="n">
-        <v>4.1</v>
+        <v>3.48</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,134 +3727,134 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AD Alcorcón</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.01</v>
+        <v>1.46</v>
       </c>
       <c r="K24" t="n">
-        <v>3.21</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>3.31</v>
+        <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="P24" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="S24" t="n">
-        <v>2.27</v>
+        <v>1.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.66</v>
+        <v>2.69</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
         <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.45</v>
+        <v>2.35</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.49</v>
+        <v>3.41</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.54</v>
+        <v>3.65</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.76</v>
+        <v>4.25</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.04</v>
+        <v>2.95</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.6</v>
+        <v>2.23</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.93</v>
+        <v>1.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3866,35 +3866,35 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Valencia CF</t>
+          <t>AD Alcorcón</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
         <v>1.5</v>
@@ -3903,97 +3903,97 @@
         <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
         <v>1.4</v>
       </c>
       <c r="R25" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
         <v>1.25</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.15</v>
+        <v>1.66</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -4005,128 +4005,128 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Valencia CF</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="I26" t="n">
         <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="K26" t="n">
-        <v>4.45</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="M26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.25</v>
       </c>
-      <c r="N26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P26" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="Y26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AE26" t="n">
         <v>1.5</v>
       </c>
-      <c r="T26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO26" t="n">
         <v>1.38</v>
       </c>
-      <c r="AF26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.79</v>
-      </c>
       <c r="AP26" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="27">
@@ -4166,13 +4166,13 @@
         <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="M27" t="n">
         <v>1.5</v>
@@ -4193,10 +4193,10 @@
         <v>2.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="T27" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
@@ -4214,10 +4214,10 @@
         <v>1.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AB27" t="n">
         <v>1.45</v>
@@ -4583,13 +4583,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L30" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M30" t="n">
         <v>1.62</v>
@@ -4607,7 +4607,7 @@
         <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
         <v>2.8</v>
@@ -4722,13 +4722,13 @@
         <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="K31" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4861,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>4.5</v>
